--- a/CashFlow/CMS_cashflow.xlsx
+++ b/CashFlow/CMS_cashflow.xlsx
@@ -758,19 +758,19 @@
         </is>
       </c>
       <c r="B6" s="0" t="n">
-        <v>1889000000.0</v>
+        <v>25000000.0</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>2155000000.0</v>
+        <v>28000000.0</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>1672000000.0</v>
+        <v>59000000.0</v>
       </c>
       <c r="E6" s="0" t="n">
-        <v>886000000.0</v>
+        <v>45000000.0</v>
       </c>
       <c r="F6" s="0" t="n">
-        <v>269000000.0</v>
+        <v>6000000.0</v>
       </c>
       <c r="G6" s="0" t="n">
         <v>44000000.0</v>
@@ -1066,19 +1066,19 @@
         </is>
       </c>
       <c r="B8" s="0" t="n">
-        <v>1877000000.0</v>
+        <v>5000000.0</v>
       </c>
       <c r="C8" s="0" t="n">
-        <v>2477000000.0</v>
+        <v>54000000.0</v>
       </c>
       <c r="D8" s="0" t="n">
-        <v>1812000000.0</v>
+        <v>42000000.0</v>
       </c>
       <c r="E8" s="0" t="n">
-        <v>1111000000.0</v>
+        <v>2000000.0</v>
       </c>
       <c r="F8" s="0" t="n">
-        <v>517000000.0</v>
+        <v>-34000000.0</v>
       </c>
       <c r="G8" s="0" t="n">
         <v>-69000000.0</v>
@@ -3483,10 +3483,8 @@
           <t>Capital Stock Change</t>
         </is>
       </c>
-      <c r="B26" s="0" t="inlineStr">
-        <is>
-          <t/>
-        </is>
+      <c r="B26" s="0" t="n">
+        <v>161000000.0</v>
       </c>
       <c r="C26" s="0" t="n">
         <v>253000000.0</v>
